--- a/manualdata/qtext_eu.xlsx
+++ b/manualdata/qtext_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\igm_survey_gender\scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\igm_survey_gender\manualdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F5D51C-9CC1-4E8D-AD64-20BB43575EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED30E4-BF13-4734-A43C-F108D9F0F64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
   <si>
     <t>Qtext</t>
   </si>
@@ -482,13 +482,49 @@
   </si>
   <si>
     <t>Governments and Economic Performance</t>
+  </si>
+  <si>
+    <t>Question A: Even with the support policies implemented by European governments in response to the crisis, low-income workers will suffer a relatively bigger hit to their incomes than those further up the distribution.</t>
+  </si>
+  <si>
+    <t>Question B: With schools across Europe closed in the lockdown, existing gaps in access to quality education between high- and low-income households will be exacerbated.</t>
+  </si>
+  <si>
+    <t>Question C: Combating the effects of the pandemic on inequality should be a priority for policy interventions.</t>
+  </si>
+  <si>
+    <t>Question A: Severe lockdowns – including closing non-essential businesses and strict limitations on people’s movement – are likely to be better for the economy in the medium term than less aggressive measures.</t>
+  </si>
+  <si>
+    <t>Question B: While national governments have responded to the crisis with substantial economic policy measures, a joint euro area fiscal response is still highly desirable.</t>
+  </si>
+  <si>
+    <t>Question C: Given the willingness of the European Central Bank to buy sovereign bonds, including Italian bonds, without limits, there is no need for ‘coronabonds’.</t>
+  </si>
+  <si>
+    <t>Question A: Even if the mortality of COVID-19 proves to be limited (similar to the number of flu deaths in a regular season), it is likely to cause a major recession.</t>
+  </si>
+  <si>
+    <t>Question B: The economic effects of COVID-19 coming from reduced spending will be larger than those coming from disruptions to supply chains and illness-related workforce reductions.</t>
+  </si>
+  <si>
+    <t>Question C: The economic policy institutions of the Eurozone are well equipped to ameliorate the potential economic damage from COVID-19.</t>
+  </si>
+  <si>
+    <t>Inequality and the COVID-19 Crisis</t>
+  </si>
+  <si>
+    <t>European Economic Policy for the COVID-19 Crisis</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -830,18 +866,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -849,799 +885,872 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>129</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>129</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>130</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>131</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>131</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>132</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>132</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>134</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>134</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>135</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>136</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>136</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>137</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>137</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>138</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>140</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>140</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>141</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>142</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>143</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>143</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>144</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>144</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>145</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>146</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>146</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>147</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>147</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>147</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>148</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>148</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>149</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>150</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>151</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>101</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>103</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>105</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>105</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>106</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>106</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>106</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>107</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B71" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>107</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>108</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>109</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>110</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B75" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>110</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>111</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B77" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>111</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B78" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>112</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>112</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>112</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>113</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B82" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>114</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>115</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>115</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>116</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B86" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>116</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B87" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>116</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B88" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>117</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>117</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B90" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>118</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>118</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B92" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>119</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B93" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>120</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>120</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>121</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>121</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B97" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>122</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B98" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>122</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B99" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>123</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B100" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>124</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B101" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>124</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B102" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>125</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>125</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B104" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>126</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B105" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>127</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B106" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>127</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B107" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>128</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B108" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>128</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B109" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manualdata/qtext_eu.xlsx
+++ b/manualdata/qtext_eu.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\igm_survey_gender\manualdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED30E4-BF13-4734-A43C-F108D9F0F64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DACE4-99F9-44DB-8598-34F2107C3552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36165" yWindow="2760" windowWidth="18675" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>Qtext</t>
   </si>
@@ -518,27 +519,105 @@
   </si>
   <si>
     <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>Question A: Economic damage from the virus and lockdowns will ultimately fall disproportionately hard on low- and middle-income countries.</t>
+  </si>
+  <si>
+    <t>Franklin Allen</t>
+  </si>
+  <si>
+    <t>CONF_2</t>
+  </si>
+  <si>
+    <t>Question B: A temporary standstill on sovereign debt payments by low- and middle-income countries to all official and private creditors to give those countries space to cover the immediate costs of the crisis would benefit advanced economies.</t>
+  </si>
+  <si>
+    <t>CONF_3</t>
+  </si>
+  <si>
+    <t>Question C: Export restrictions on food and medical supplies, and other protectionist measures, are likely to cost lives and slow economic recovery in all countries.</t>
+  </si>
+  <si>
+    <t>CONF_4</t>
+  </si>
+  <si>
+    <t>Question A: Government support to private firms in the form of debt (either directly or with the help of public guarantees) is desirable, but risks leaving them with too much leverage to invest and grow in the future.</t>
+  </si>
+  <si>
+    <t>CONF_5</t>
+  </si>
+  <si>
+    <t>Question B: Providing funds to viable businesses in the form of equity injections is a vital complement to debt support.</t>
+  </si>
+  <si>
+    <t>CONF_6</t>
+  </si>
+  <si>
+    <t>Question C: With the EU ban on state aid suspended, government capital injections should be provided via a newly created pan-European equity fund, rather than be left to national governments acting independently.</t>
+  </si>
+  <si>
+    <t>COVID-19 and the World Economy</t>
+  </si>
+  <si>
+    <t>Supporting European Businesses in the COVID-19 Crisis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF555555"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -546,12 +625,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFD4D8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,867 +987,1007 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
+      <c r="A2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>161</v>
+      <c r="A3" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>161</v>
+      <c r="A4" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>162</v>
+      <c r="A5" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>162</v>
+      <c r="A6" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>162</v>
+      <c r="A7" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>128</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
         <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729B08F2-E1F1-4966-9F2E-DA2252AABEA4}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
